--- a/2025-1/REDI.xlsx
+++ b/2025-1/REDI.xlsx
@@ -73553,7 +73553,7 @@
       <c r="V929" t="inlineStr"/>
       <c r="W929" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X929" t="inlineStr">
@@ -73631,7 +73631,7 @@
       <c r="V930" t="inlineStr"/>
       <c r="W930" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X930" t="inlineStr">
@@ -73709,7 +73709,7 @@
       <c r="V931" t="inlineStr"/>
       <c r="W931" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X931" t="inlineStr">
@@ -73787,7 +73787,7 @@
       <c r="V932" t="inlineStr"/>
       <c r="W932" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X932" t="inlineStr">
@@ -73865,7 +73865,7 @@
       <c r="V933" t="inlineStr"/>
       <c r="W933" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X933" t="inlineStr">
@@ -73943,7 +73943,7 @@
       <c r="V934" t="inlineStr"/>
       <c r="W934" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X934" t="inlineStr">
@@ -74021,7 +74021,7 @@
       <c r="V935" t="inlineStr"/>
       <c r="W935" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X935" t="inlineStr">
@@ -74099,7 +74099,7 @@
       <c r="V936" t="inlineStr"/>
       <c r="W936" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X936" t="inlineStr">
@@ -74177,7 +74177,7 @@
       <c r="V937" t="inlineStr"/>
       <c r="W937" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X937" t="inlineStr">
@@ -74255,7 +74255,7 @@
       <c r="V938" t="inlineStr"/>
       <c r="W938" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X938" t="inlineStr">
@@ -74333,7 +74333,7 @@
       <c r="V939" t="inlineStr"/>
       <c r="W939" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X939" t="inlineStr">
@@ -74411,7 +74411,7 @@
       <c r="V940" t="inlineStr"/>
       <c r="W940" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X940" t="inlineStr">
@@ -74489,7 +74489,7 @@
       <c r="V941" t="inlineStr"/>
       <c r="W941" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X941" t="inlineStr">
@@ -74567,7 +74567,7 @@
       <c r="V942" t="inlineStr"/>
       <c r="W942" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X942" t="inlineStr">
@@ -74645,7 +74645,7 @@
       <c r="V943" t="inlineStr"/>
       <c r="W943" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X943" t="inlineStr">
@@ -74723,7 +74723,7 @@
       <c r="V944" t="inlineStr"/>
       <c r="W944" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X944" t="inlineStr">
@@ -74801,7 +74801,7 @@
       <c r="V945" t="inlineStr"/>
       <c r="W945" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X945" t="inlineStr">
@@ -74879,7 +74879,7 @@
       <c r="V946" t="inlineStr"/>
       <c r="W946" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X946" t="inlineStr">
@@ -74963,7 +74963,7 @@
       </c>
       <c r="W947" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X947" t="inlineStr">
@@ -75047,7 +75047,7 @@
       </c>
       <c r="W948" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X948" t="inlineStr">
@@ -75125,7 +75125,7 @@
       <c r="V949" t="inlineStr"/>
       <c r="W949" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X949" t="inlineStr">
@@ -75203,7 +75203,7 @@
       <c r="V950" t="inlineStr"/>
       <c r="W950" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X950" t="inlineStr">
@@ -75281,7 +75281,7 @@
       <c r="V951" t="inlineStr"/>
       <c r="W951" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X951" t="inlineStr">
@@ -75359,7 +75359,7 @@
       <c r="V952" t="inlineStr"/>
       <c r="W952" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X952" t="inlineStr">
@@ -75437,7 +75437,7 @@
       <c r="V953" t="inlineStr"/>
       <c r="W953" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X953" t="inlineStr">
@@ -75515,7 +75515,7 @@
       <c r="V954" t="inlineStr"/>
       <c r="W954" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X954" t="inlineStr">
@@ -75599,7 +75599,7 @@
       </c>
       <c r="W955" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X955" t="inlineStr">
@@ -75677,7 +75677,7 @@
       <c r="V956" t="inlineStr"/>
       <c r="W956" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X956" t="inlineStr">
@@ -75755,7 +75755,7 @@
       <c r="V957" t="inlineStr"/>
       <c r="W957" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X957" t="inlineStr">
@@ -75833,7 +75833,7 @@
       <c r="V958" t="inlineStr"/>
       <c r="W958" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X958" t="inlineStr">
@@ -75911,7 +75911,7 @@
       <c r="V959" t="inlineStr"/>
       <c r="W959" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X959" t="inlineStr">
@@ -75989,7 +75989,7 @@
       <c r="V960" t="inlineStr"/>
       <c r="W960" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X960" t="inlineStr">
@@ -76067,7 +76067,7 @@
       <c r="V961" t="inlineStr"/>
       <c r="W961" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X961" t="inlineStr">
@@ -76145,7 +76145,7 @@
       <c r="V962" t="inlineStr"/>
       <c r="W962" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X962" t="inlineStr">
@@ -76229,7 +76229,7 @@
       </c>
       <c r="W963" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X963" t="inlineStr">
@@ -76313,7 +76313,7 @@
       </c>
       <c r="W964" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X964" t="inlineStr">
@@ -76391,7 +76391,7 @@
       <c r="V965" t="inlineStr"/>
       <c r="W965" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X965" t="inlineStr">
@@ -76469,7 +76469,7 @@
       <c r="V966" t="inlineStr"/>
       <c r="W966" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X966" t="inlineStr">
@@ -76547,7 +76547,7 @@
       <c r="V967" t="inlineStr"/>
       <c r="W967" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X967" t="inlineStr">
@@ -76625,7 +76625,7 @@
       <c r="V968" t="inlineStr"/>
       <c r="W968" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X968" t="inlineStr">
@@ -76703,7 +76703,7 @@
       <c r="V969" t="inlineStr"/>
       <c r="W969" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X969" t="inlineStr">
@@ -76781,7 +76781,7 @@
       <c r="V970" t="inlineStr"/>
       <c r="W970" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X970" t="inlineStr">
@@ -76859,7 +76859,7 @@
       <c r="V971" t="inlineStr"/>
       <c r="W971" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X971" t="inlineStr">
@@ -76937,7 +76937,7 @@
       <c r="V972" t="inlineStr"/>
       <c r="W972" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="X972" t="inlineStr">
